--- a/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8773</v>
+        <v>8473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18451</v>
+        <v>19001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.634376245392121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.387378625124872</v>
+        <v>0.3741297425283642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8146988284077147</v>
+        <v>0.8389490737521862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>15580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11805</v>
+        <v>12426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17477</v>
+        <v>17524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8548011554919174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6476547683545477</v>
+        <v>0.6817298881132733</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9588581495801908</v>
+        <v>0.9614305603125379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -783,19 +783,19 @@
         <v>29948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22961</v>
+        <v>22138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35229</v>
+        <v>34809</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7326667330447535</v>
+        <v>0.7326667330447536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5617428915858877</v>
+        <v>0.5416111873907404</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.86186347583829</v>
+        <v>0.8515976789055697</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8155</v>
+        <v>8765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1147594963933569</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3600630511540116</v>
+        <v>0.387007885252371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>2647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6422</v>
+        <v>5801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1451988445080825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04114185041980948</v>
+        <v>0.03856943968746221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3523452316454523</v>
+        <v>0.3182701118867267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>5246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1982</v>
+        <v>2033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11140</v>
+        <v>10985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1283328187944869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04849155692001061</v>
+        <v>0.04974214795981163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2725388561612948</v>
+        <v>0.2687545850641264</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>5682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2140</v>
+        <v>1857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11693</v>
+        <v>11825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2508642582145221</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0945017929799854</v>
+        <v>0.08199305906304281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5162764153806668</v>
+        <v>0.5221349532856439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>5682</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1761</v>
+        <v>1736</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13407</v>
+        <v>12849</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1390004481607596</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04307790852663902</v>
+        <v>0.04246895740107312</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3279925931578548</v>
+        <v>0.3143502694073051</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>199612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181272</v>
+        <v>182964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215797</v>
+        <v>213638</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7205018260830199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6543046827497457</v>
+        <v>0.6604117773868036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.778919900329725</v>
+        <v>0.7711279140607068</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>230</v>
@@ -1042,19 +1042,19 @@
         <v>175602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163114</v>
+        <v>163706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187199</v>
+        <v>186954</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7359573269414479</v>
+        <v>0.7359573269414478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.683621722956517</v>
+        <v>0.6861017347209799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7845613179874438</v>
+        <v>0.7835363403368837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>396</v>
@@ -1063,19 +1063,19 @@
         <v>375215</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>353114</v>
+        <v>355984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>394162</v>
+        <v>395544</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7276534497086565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6847942628900696</v>
+        <v>0.6903600363360707</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7643987529836102</v>
+        <v>0.7670781302093045</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>35972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25120</v>
+        <v>25346</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49358</v>
+        <v>48958</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1298409475073392</v>
+        <v>0.1298409475073391</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09067184088143676</v>
+        <v>0.0914861016460819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1781572050419484</v>
+        <v>0.1767157369593807</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -1113,19 +1113,19 @@
         <v>27743</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20306</v>
+        <v>19929</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37081</v>
+        <v>36958</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.116270546672116</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08510518402086295</v>
+        <v>0.08352177236871912</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1554084128571789</v>
+        <v>0.1548929025477199</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -1134,19 +1134,19 @@
         <v>63715</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>50880</v>
+        <v>50832</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78702</v>
+        <v>79223</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1235616039835336</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09867201297238323</v>
+        <v>0.09857884209187276</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1526267500803952</v>
+        <v>0.1536372274636084</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>41462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29987</v>
+        <v>29517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55825</v>
+        <v>54496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1496572264096407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1082381631542705</v>
+        <v>0.1065412655197863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2014999300107666</v>
+        <v>0.1967055662175075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1184,19 +1184,19 @@
         <v>35259</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25886</v>
+        <v>26137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46499</v>
+        <v>45805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1477721263864362</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084899747820476</v>
+        <v>0.1095399775835363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1948800007539997</v>
+        <v>0.1919720224593125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1205,19 +1205,19 @@
         <v>76721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62624</v>
+        <v>60225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94290</v>
+        <v>93087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1487849463078098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1214469493914991</v>
+        <v>0.1167947896201625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1828566823881282</v>
+        <v>0.1805226639551777</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>102367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92298</v>
+        <v>93148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109058</v>
+        <v>109796</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8514976456758235</v>
+        <v>0.8514976456758234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7677412196044793</v>
+        <v>0.7748112122311749</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9071572567208084</v>
+        <v>0.9132934386021515</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -1330,19 +1330,19 @@
         <v>120104</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110168</v>
+        <v>110039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128139</v>
+        <v>127584</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8270834190623876</v>
+        <v>0.8270834190623875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7586569993460318</v>
+        <v>0.7577683276587198</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8824122642892037</v>
+        <v>0.8785931085515124</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -1351,19 +1351,19 @@
         <v>222471</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>210143</v>
+        <v>206827</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>234250</v>
+        <v>233361</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8381410577214969</v>
+        <v>0.8381410577214971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7916976751716022</v>
+        <v>0.7792020875402967</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8825171826095876</v>
+        <v>0.8791675861947428</v>
       </c>
     </row>
     <row r="13">
@@ -1380,19 +1380,19 @@
         <v>8873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4347</v>
+        <v>4048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17054</v>
+        <v>16924</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07380914361987514</v>
+        <v>0.07380914361987516</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03615495596623208</v>
+        <v>0.03367101289888525</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1418566141675583</v>
+        <v>0.1407773913973778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1401,19 +1401,19 @@
         <v>11668</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7403</v>
+        <v>6849</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18898</v>
+        <v>18237</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08035212127708025</v>
+        <v>0.08035212127708022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05098087307654584</v>
+        <v>0.04716599747665966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1301361795596989</v>
+        <v>0.1255887371164251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1422,19 +1422,19 @@
         <v>20542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13089</v>
+        <v>13308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30125</v>
+        <v>30107</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07738869000262064</v>
+        <v>0.07738869000262065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04931190410208867</v>
+        <v>0.05013491728893079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1134948101533725</v>
+        <v>0.1134258755801019</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>8980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3944</v>
+        <v>4161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16875</v>
+        <v>16777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07469321070430134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03280797959208314</v>
+        <v>0.03461099194899421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1403713049489073</v>
+        <v>0.1395491924734077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1472,19 +1472,19 @@
         <v>13442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7729</v>
+        <v>8163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22441</v>
+        <v>22204</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09256445966053223</v>
+        <v>0.0925644596605322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05322584996865349</v>
+        <v>0.05621370008975731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1545352201211812</v>
+        <v>0.1529039017722996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1493,19 +1493,19 @@
         <v>22421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14445</v>
+        <v>14452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32230</v>
+        <v>34247</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08447025227588244</v>
+        <v>0.08447025227588245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05441847699437191</v>
+        <v>0.05444685656931335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1214228179549628</v>
+        <v>0.129024045071477</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>316347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>296687</v>
+        <v>296105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>336206</v>
+        <v>335188</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7533601824342246</v>
+        <v>0.7533601824342245</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7065399209375233</v>
+        <v>0.705155538978731</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.800651592902668</v>
+        <v>0.7982283791511208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>403</v>
@@ -1618,19 +1618,19 @@
         <v>311286</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>294254</v>
+        <v>296673</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>324817</v>
+        <v>326995</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7742589684062814</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.731895183791576</v>
+        <v>0.7379116791681631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8079141576579449</v>
+        <v>0.8133301986270027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>671</v>
@@ -1639,19 +1639,19 @@
         <v>627633</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>602061</v>
+        <v>600199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>651818</v>
+        <v>649627</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7635823935550252</v>
+        <v>0.763582393555025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.732471293831108</v>
+        <v>0.7302057047623944</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7930059362680346</v>
+        <v>0.7903402090734712</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>47444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35268</v>
+        <v>34987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61683</v>
+        <v>63335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1129858344849021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0839891352245407</v>
+        <v>0.08331925361572995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1468938984918446</v>
+        <v>0.1508269598305297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1689,19 +1689,19 @@
         <v>42057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32850</v>
+        <v>32502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53087</v>
+        <v>53423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1046086441177367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0817062927214425</v>
+        <v>0.08084179607722039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1320427169450809</v>
+        <v>0.132879438925444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>105</v>
@@ -1710,19 +1710,19 @@
         <v>89502</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72420</v>
+        <v>73355</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109755</v>
+        <v>107178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1088883041954968</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08810631229664177</v>
+        <v>0.08924387437083343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1335290808735069</v>
+        <v>0.1303938476924198</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>56123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42804</v>
+        <v>42890</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72096</v>
+        <v>73309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1336539830808733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1019345817901591</v>
+        <v>0.1021389132999431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1716907081873514</v>
+        <v>0.1745801736555647</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -1760,19 +1760,19 @@
         <v>48701</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38015</v>
+        <v>36697</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62809</v>
+        <v>61960</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1211323874759819</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09455552303751155</v>
+        <v>0.09127507133023186</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1562230231353205</v>
+        <v>0.1541126434272751</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>113</v>
@@ -1781,19 +1781,19 @@
         <v>104824</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>85843</v>
+        <v>86061</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124028</v>
+        <v>126008</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.127529302249478</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1044376870691824</v>
+        <v>0.1047024843484692</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1508930201188724</v>
+        <v>0.1533018794424354</v>
       </c>
     </row>
     <row r="19">
